--- a/graficas y datos en excel.xlsx
+++ b/graficas y datos en excel.xlsx
@@ -41,10 +41,10 @@
     <t>T.P. con memoria a 200</t>
   </si>
   <si>
-    <t>T.P. con procesador de instrucciones</t>
+    <t>T.P. con 2 procesadores</t>
   </si>
   <si>
-    <t>T.P. con 2 procesadores</t>
+    <t>T.P. con procesador de 6 instrucciones</t>
   </si>
 </sst>
 </file>
@@ -97,6 +97,5441 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tiempo promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.98699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1841065344"/>
+        <c:axId val="-1841068064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1841065344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1841068064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1841068064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1841065344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.P. con intervalos de 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.399000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.053999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.268000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.393000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1841062080"/>
+        <c:axId val="-1841069152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1841062080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1841069152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1841069152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1841062080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.P. con intervalos de 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.737000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201.161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332.99299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>418.39600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1841070784"/>
+        <c:axId val="-1841056640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1841070784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1841056640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1841056640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1841070784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.P. con memoria a 200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.98699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175.535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1573337408"/>
+        <c:axId val="-1573331424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1573337408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1573331424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1573331424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1573337408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.P. con procesador de 6 instrucciones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.4190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.231000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1573329792"/>
+        <c:axId val="-1573340128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1573329792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1573340128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1573340128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1573329792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T.P. con 2 procesadores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5330000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.914999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1573335232"/>
+        <c:axId val="-1573341760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1573335232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1573341760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1573341760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1573335232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,7 +5800,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,7 +5809,7 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -395,38 +5830,129 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
+      <c r="B2">
+        <v>33.417999999999999</v>
+      </c>
+      <c r="C2">
+        <v>18.399000000000001</v>
+      </c>
+      <c r="D2">
+        <v>44.737000000000002</v>
+      </c>
+      <c r="E2">
+        <v>33.417999999999999</v>
+      </c>
+      <c r="F2">
+        <v>9.4190000000000005</v>
+      </c>
+      <c r="G2">
+        <v>5.1459999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
+      </c>
+      <c r="B3">
+        <v>48.061999999999998</v>
+      </c>
+      <c r="C3">
+        <v>22.013000000000002</v>
+      </c>
+      <c r="D3">
+        <v>99.265000000000001</v>
+      </c>
+      <c r="E3">
+        <v>48.061999999999998</v>
+      </c>
+      <c r="F3">
+        <v>10.888999999999999</v>
+      </c>
+      <c r="G3">
+        <v>5.5330000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
+      <c r="B4">
+        <v>111.98699999999999</v>
+      </c>
+      <c r="C4">
+        <v>18.053999999999998</v>
+      </c>
+      <c r="D4">
+        <v>201.161</v>
+      </c>
+      <c r="E4">
+        <v>111.98699999999999</v>
+      </c>
+      <c r="F4">
+        <v>30.231000000000002</v>
+      </c>
+      <c r="G4">
+        <v>8.8650000000000002</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>150</v>
+      </c>
+      <c r="B5">
+        <v>175.535</v>
+      </c>
+      <c r="C5">
+        <v>22.268000000000001</v>
+      </c>
+      <c r="D5">
+        <v>332.99299999999999</v>
+      </c>
+      <c r="E5">
+        <v>175.535</v>
+      </c>
+      <c r="F5">
+        <v>56.515999999999998</v>
+      </c>
+      <c r="G5">
+        <v>10.903</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
+      <c r="B6">
+        <v>233.542</v>
+      </c>
+      <c r="C6">
+        <v>20.393000000000001</v>
+      </c>
+      <c r="D6">
+        <v>418.39600000000002</v>
+      </c>
+      <c r="E6">
+        <v>233.542</v>
+      </c>
+      <c r="F6">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="G6">
+        <v>11.914999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>